--- a/app/upload/Cash_Flow_Model.xlsx
+++ b/app/upload/Cash_Flow_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamjenkins/Documents/Personal/Code/cashflow/app/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb508f8894270202/Documents/Financial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0AD65-1A69-6349-95C4-D0D018623E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{5EDA5B35-9D02-914A-81C7-73227BC13EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC80A21A-8095-E841-972D-8E9A828CCE93}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{BED57D89-612B-4947-AFBF-CF3E31ABBC47}"/>
+    <workbookView xWindow="840" yWindow="1360" windowWidth="27580" windowHeight="22080" xr2:uid="{BED57D89-612B-4947-AFBF-CF3E31ABBC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -43,34 +43,61 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Rent</t>
+  </si>
+  <si>
     <t>Credits</t>
   </si>
   <si>
     <t>Debits</t>
   </si>
   <si>
+    <t>Fellowship</t>
+  </si>
+  <si>
+    <t>VA Disability</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>AMEX Platinum</t>
+  </si>
+  <si>
+    <t>Chase Sapphire</t>
+  </si>
+  <si>
+    <t>AMEX Loan</t>
+  </si>
+  <si>
+    <t>Car Loan</t>
+  </si>
+  <si>
+    <t>UCSD Reimbursement</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
     <t>Starting Balance</t>
   </si>
   <si>
-    <t>Pay Day</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Car Payment</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>CC Bill</t>
-  </si>
-  <si>
-    <t>Utilities</t>
+    <t>Apple CC</t>
+  </si>
+  <si>
+    <t>USNR Pay</t>
+  </si>
+  <si>
+    <t>CA Tax Refund</t>
+  </si>
+  <si>
+    <t>Fed Tax</t>
+  </si>
+  <si>
+    <t>NFCU CC</t>
+  </si>
+  <si>
+    <t>UCSD Payment</t>
   </si>
 </sst>
 </file>
@@ -422,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81229D29-B64F-7648-9BAD-535C040E515F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,10 +467,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -451,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -460,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -468,22 +495,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>2967.69</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,69 +521,151 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="F5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6">
+        <v>1741.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>766.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>2300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1781</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>150</v>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
